--- a/Shocks/Shock_files/EXIOHSUT_2013_Average.xlsx
+++ b/Shocks/Shock_files/EXIOHSUT_2013_Average.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indeces" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Y" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="v" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="e" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="z" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="indeces" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Y" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="v" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="e" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="z" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1907,7 +1907,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Production of DFIG generators</t>
+          <t>Production of electricity by Geothermal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -1919,7 +1919,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Production of PMG generators</t>
+          <t>Production of electricity by biomass and waste</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -1931,7 +1931,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Production of electricity by Geothermal</t>
+          <t>Production of electricity by coal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Production of electricity by biomass and waste</t>
+          <t>Production of electricity by gas</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -1955,7 +1955,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Production of electricity by coal</t>
+          <t>Production of electricity by hydro</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -1967,7 +1967,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Production of electricity by gas</t>
+          <t>Production of electricity by nuclear</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -1979,7 +1979,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Production of electricity by hydro</t>
+          <t>Production of electricity by petroleum and other oil derivatives</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -1991,7 +1991,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Production of electricity by nuclear</t>
+          <t>Production of electricity by solar photovoltaic</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2003,7 +2003,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Production of electricity by petroleum and other oil derivatives</t>
+          <t>Production of electricity by solar thermal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2015,7 +2015,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Production of electricity by solar photovoltaic</t>
+          <t>Production of electricity by tide, wave, ocean</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2027,7 +2027,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Production of electricity by solar thermal</t>
+          <t>Production of electricity by wind</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2039,7 +2039,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Production of electricity by tide, wave, ocean</t>
+          <t>Production of electricity nec</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2051,7 +2051,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Production of electricity by wind</t>
+          <t>Production of meat products nec</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2063,7 +2063,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Production of electricity nec</t>
+          <t>Production of offshore wind plants</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2075,7 +2075,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Production of meat products nec</t>
+          <t>Production of onshore wind plants</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2087,7 +2087,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Production of mono-Si and poli-Si cells</t>
+          <t>Production of photovoltaic plants</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2099,7 +2099,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Production of offshore wind plants</t>
+          <t>Public administration and defence; compulsory social security (75)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2111,7 +2111,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Production of onshore wind plants</t>
+          <t>Publishing, printing and reproduction of recorded media (22)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -2123,7 +2123,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Production of photovoltaic modules</t>
+          <t>Pulp</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -2135,7 +2135,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Production of photovoltaic plants</t>
+          <t>Quarrying of sand and clay</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -2147,7 +2147,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Public administration and defence; compulsory social security (75)</t>
+          <t>Quarrying of stone</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -2159,7 +2159,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Publishing, printing and reproduction of recorded media (22)</t>
+          <t>Raw milk</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -2171,7 +2171,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pulp</t>
+          <t>Re-processing of ash into clinker</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -2183,7 +2183,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Quarrying of sand and clay</t>
+          <t>Re-processing of secondary aluminium into new aluminium</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Quarrying of stone</t>
+          <t>Re-processing of secondary construction material into aggregates</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -2207,7 +2207,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Raw milk</t>
+          <t>Re-processing of secondary copper into new copper</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -2219,7 +2219,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Re-processing of ash into clinker</t>
+          <t>Re-processing of secondary glass into new glass</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Re-processing of secondary aluminium into new aluminium</t>
+          <t>Re-processing of secondary lead into new lead, zinc and tin</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Re-processing of secondary construction material into aggregates</t>
+          <t>Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -2255,7 +2255,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Re-processing of secondary copper into new copper</t>
+          <t>Re-processing of secondary paper into new pulp</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -2267,7 +2267,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Re-processing of secondary glass into new glass</t>
+          <t>Re-processing of secondary plastic into new plastic</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -2279,7 +2279,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Re-processing of secondary lead into new lead, zinc and tin</t>
+          <t>Re-processing of secondary preciuos metals into new preciuos metals</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -2291,7 +2291,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
+          <t>Re-processing of secondary steel into new steel</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Re-processing of secondary paper into new pulp</t>
+          <t>Re-processing of secondary wood material into new wood material</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -2315,7 +2315,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Re-processing of secondary plastic into new plastic</t>
+          <t>Real estate activities (70)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -2327,7 +2327,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Re-processing of secondary preciuos metals into new preciuos metals</t>
+          <t>Recreational, cultural and sporting activities (92)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -2339,7 +2339,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Re-processing of secondary steel into new steel</t>
+          <t>Recycling of bottles by direct reuse</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -2351,7 +2351,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Re-processing of secondary wood material into new wood material</t>
+          <t>Recycling of waste and scrap</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -2363,7 +2363,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Real estate activities (70)</t>
+          <t>Renting of machinery and equipment without operator and of personal and household goods (71)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -2375,7 +2375,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Recreational, cultural and sporting activities (92)</t>
+          <t>Research and development (73)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Recycling of bottles by direct reuse</t>
+          <t>Retail sale of automotive fuel</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -2399,7 +2399,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Recycling of waste and scrap</t>
+          <t>Retail trade, except of motor vehicles and motorcycles; repair of personal and household goods (52)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -2411,7 +2411,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Renting of machinery and equipment without operator and of personal and household goods (71)</t>
+          <t>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Research and development (73)</t>
+          <t>Sea and coastal water transport</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -2435,7 +2435,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Retail sale of automotive fuel</t>
+          <t>Steam and hot water supply</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Retail trade, except of motor vehicles and motorcycles; repair of personal and household goods (52)</t>
+          <t>Sugar refining</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -2459,7 +2459,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</t>
+          <t>Supporting and auxiliary transport activities; activities of travel agencies (63)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -2471,7 +2471,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sea and coastal water transport</t>
+          <t>Tanning and dressing of leather; manufacture of luggage, handbags, saddlery, harness and footwear (19)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -2483,7 +2483,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Steam and hot water supply</t>
+          <t>Transmission of electricity</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -2495,7 +2495,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sugar refining</t>
+          <t>Transport via pipelines</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -2507,7 +2507,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Supporting and auxiliary transport activities; activities of travel agencies (63)</t>
+          <t>Transport via railways</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -2519,7 +2519,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tanning and dressing of leather; manufacture of luggage, handbags, saddlery, harness and footwear (19)</t>
+          <t>Waste water treatment, food</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transmission of electricity</t>
+          <t>Waste water treatment, other</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -2543,7 +2543,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transport via pipelines</t>
+          <t>Wholesale trade and commission trade, except of motor vehicles and motorcycles (51)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -2555,7 +2555,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transport via railways</t>
+          <t>Wool, silk-worm cocoons</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -2567,7 +2567,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Waste water treatment, food</t>
+          <t>Additives/Blending Components</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -2579,7 +2579,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Waste water treatment, other</t>
+          <t>Air transport services (62)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -2591,7 +2591,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Wholesale trade and commission trade, except of motor vehicles and motorcycles (51)</t>
+          <t>Aluminium and aluminium products</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Wool, silk-worm cocoons</t>
+          <t>Aluminium ores and concentrates</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -2615,7 +2615,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Additives/Blending Components</t>
+          <t>Animal products nec</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -2627,7 +2627,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Air transport services (62)</t>
+          <t>Anthracite</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -2639,7 +2639,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Aluminium and aluminium products</t>
+          <t>Ash for treatment, Re-processing of ash into clinker</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -2651,7 +2651,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Aluminium ores and concentrates</t>
+          <t>Aviation Gasoline</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Animal products nec</t>
+          <t>BKB/Peat Briquettes</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -2675,7 +2675,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Anthracite</t>
+          <t>Basic iron and steel and of ferro-alloys and first products thereof</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -2687,7 +2687,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ash for treatment, Re-processing of ash into clinker</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -2699,7 +2699,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Aviation Gasoline</t>
+          <t>Biodiesels</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -2711,7 +2711,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>BKB/Peat Briquettes</t>
+          <t>Biogas</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -2723,7 +2723,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Basic iron and steel and of ferro-alloys and first products thereof</t>
+          <t>Biogasoline</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -2735,7 +2735,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Beverages</t>
+          <t>Bitumen</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Biodiesels</t>
+          <t>Blast Furnace Gas</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -2759,7 +2759,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Biogas</t>
+          <t>Bottles for treatment, Recycling of bottles by direct reuse</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -2771,7 +2771,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Biogasoline</t>
+          <t>Bricks, tiles and construction products, in baked clay</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -2783,7 +2783,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Bitumen</t>
+          <t>Cattle</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -2795,7 +2795,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Blast Furnace Gas</t>
+          <t>Cement, lime and plaster</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -2807,7 +2807,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bottles for treatment, Recycling of bottles by direct reuse</t>
+          <t>Ceramic goods</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -2819,7 +2819,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Bricks, tiles and construction products, in baked clay</t>
+          <t>Cereal grains nec</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -2831,7 +2831,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cattle</t>
+          <t>Charcoal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -2843,7 +2843,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Cement, lime and plaster</t>
+          <t>Chemical and fertilizer minerals, salt and other mining and quarrying products n.e.c.</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -2855,7 +2855,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ceramic goods</t>
+          <t>Chemicals nec</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -2867,7 +2867,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cereal grains nec</t>
+          <t>Coal Tar</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -2879,7 +2879,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Charcoal</t>
+          <t>Coke Oven Coke</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -2891,7 +2891,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chemical and fertilizer minerals, salt and other mining and quarrying products n.e.c.</t>
+          <t>Coke oven gas</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -2903,7 +2903,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Chemicals nec</t>
+          <t>Coking Coal</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -2915,7 +2915,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Coal Tar</t>
+          <t>Collected and purified water, distribution services of water (41)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -2927,7 +2927,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Coke Oven Coke</t>
+          <t>Computer and related services (72)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -2939,7 +2939,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Coke oven gas</t>
+          <t>Construction work (45)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -2951,7 +2951,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Coking Coal</t>
+          <t>Copper ores and concentrates</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -2963,7 +2963,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Collected and purified water, distribution services of water (41)</t>
+          <t>Copper products</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -2975,7 +2975,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Computer and related services (72)</t>
+          <t>Crops nec</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -2987,7 +2987,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Construction work (45)</t>
+          <t>Crude petroleum and services related to crude oil extraction, excluding surveying</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -2999,7 +2999,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Copper ores and concentrates</t>
+          <t>Dairy products</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -3011,7 +3011,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Copper products</t>
+          <t>Distribution and trade services of electricity</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -3023,7 +3023,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Crops nec</t>
+          <t>Distribution services of gaseous fuels through mains</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -3035,7 +3035,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Crude petroleum and services related to crude oil extraction, excluding surveying</t>
+          <t>Education services (80)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -3047,7 +3047,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>DFIG generators</t>
+          <t>Electrical machinery and apparatus n.e.c. (31)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -3059,7 +3059,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dairy products</t>
+          <t>Electricity by Geothermal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -3071,7 +3071,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Distribution and trade services of electricity</t>
+          <t>Electricity by biomass and waste</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -3083,7 +3083,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Distribution services of gaseous fuels through mains</t>
+          <t>Electricity by coal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -3095,7 +3095,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Dysprosium</t>
+          <t>Electricity by gas</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -3107,7 +3107,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Education services (80)</t>
+          <t>Electricity by hydro</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -3119,7 +3119,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Electrical machinery and apparatus n.e.c. (31)</t>
+          <t>Electricity by nuclear</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -3131,7 +3131,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Electricity by Geothermal</t>
+          <t>Electricity by petroleum and other oil derivatives</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Electricity by biomass and waste</t>
+          <t>Electricity by solar photovoltaic</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -3155,7 +3155,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Electricity by coal</t>
+          <t>Electricity by solar thermal</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Electricity by gas</t>
+          <t>Electricity by tide, wave, ocean</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -3179,7 +3179,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Electricity by hydro</t>
+          <t>Electricity by wind</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -3191,7 +3191,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Electricity by nuclear</t>
+          <t>Electricity nec</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -3203,7 +3203,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Electricity by petroleum and other oil derivatives</t>
+          <t>Ethane</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -3215,7 +3215,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Electricity by solar photovoltaic</t>
+          <t>Extra-territorial organizations and bodies</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -3227,7 +3227,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Electricity by solar thermal</t>
+          <t>Fabricated metal products, except machinery and equipment (28)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -3239,7 +3239,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Electricity by tide, wave, ocean</t>
+          <t>Financial intermediation services, except insurance and pension funding services (65)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -3251,7 +3251,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Electricity by wind</t>
+          <t>Fish and other fishing products; services incidental of fishing (05)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -3263,7 +3263,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Electricity nec</t>
+          <t>Fish products</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -3275,7 +3275,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ethane</t>
+          <t>Food products nec</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -3287,7 +3287,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Extra-territorial organizations and bodies</t>
+          <t>Food waste for treatment: biogasification and land application</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -3299,7 +3299,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Fabricated metal products, except machinery and equipment (28)</t>
+          <t>Food waste for treatment: composting and land application</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -3311,7 +3311,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Financial intermediation services, except insurance and pension funding services (65)</t>
+          <t>Food waste for treatment: incineration</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -3323,7 +3323,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Fish and other fishing products; services incidental of fishing (05)</t>
+          <t>Food waste for treatment: landfill</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -3335,7 +3335,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Fish products</t>
+          <t>Food waste for treatment: waste water treatment</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -3347,7 +3347,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Food products nec</t>
+          <t>Foundry work services</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -3359,7 +3359,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Food waste for treatment: biogasification and land application</t>
+          <t>Furniture; other manufactured goods n.e.c. (36)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -3371,7 +3371,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Food waste for treatment: composting and land application</t>
+          <t>Gas Coke</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -3383,7 +3383,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Food waste for treatment: incineration</t>
+          <t>Gas Works Gas</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -3395,7 +3395,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Food waste for treatment: landfill</t>
+          <t>Gas/Diesel Oil</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -3407,7 +3407,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Food waste for treatment: waste water treatment</t>
+          <t>Gasoline Type Jet Fuel</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -3419,7 +3419,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Foundry work services</t>
+          <t>Glass and glass products</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -3431,7 +3431,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Furniture; other manufactured goods n.e.c. (36)</t>
+          <t>Health and social work services (85)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -3443,7 +3443,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Gas Coke</t>
+          <t>Heavy Fuel Oil</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -3455,7 +3455,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Gas Works Gas</t>
+          <t>Hotel and restaurant services (55)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -3467,7 +3467,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Gas/Diesel Oil</t>
+          <t>Inert/metal/hazardous waste for treatment: landfill</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -3479,7 +3479,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Gasoline Type Jet Fuel</t>
+          <t>Inland water transportation services</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -3491,7 +3491,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Glass and glass products</t>
+          <t>Insurance and pension funding services, except compulsory social security services (66)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -3503,7 +3503,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Health and social work services (85)</t>
+          <t>Intert/metal waste for treatment: incineration</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -3515,7 +3515,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Heavy Fuel Oil</t>
+          <t>Iron ores</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -3527,7 +3527,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Hotel and restaurant services (55)</t>
+          <t>Kerosene</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -3539,7 +3539,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Inert/metal/hazardous waste for treatment: landfill</t>
+          <t>Kerosene Type Jet Fuel</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -3551,7 +3551,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Inland water transportation services</t>
+          <t>Lead, zinc and tin and products thereof</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -3563,7 +3563,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Insurance and pension funding services, except compulsory social security services (66)</t>
+          <t>Lead, zinc and tin ores and concentrates</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -3575,7 +3575,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Intert/metal waste for treatment: incineration</t>
+          <t>Leather and leather products (19)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -3587,7 +3587,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Iron ores</t>
+          <t>Lignite/Brown Coal</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -3599,7 +3599,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Kerosene</t>
+          <t>Liquefied Petroleum Gases (LPG)</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -3611,7 +3611,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Kerosene Type Jet Fuel</t>
+          <t>Lubricants</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -3623,7 +3623,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Lead, zinc and tin and products thereof</t>
+          <t>Machinery and equipment n.e.c. (29)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -3635,7 +3635,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Lead, zinc and tin ores and concentrates</t>
+          <t>Manure (biogas treatment)</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -3647,7 +3647,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Leather and leather products (19)</t>
+          <t>Manure (conventional treatment)</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -3659,7 +3659,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Lignite/Brown Coal</t>
+          <t>Meat animals nec</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -3671,7 +3671,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Liquefied Petroleum Gases (LPG)</t>
+          <t>Meat products nec</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Lubricants</t>
+          <t>Medical, precision and optical instruments, watches and clocks (33)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -3695,7 +3695,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Machinery and equipment n.e.c. (29)</t>
+          <t>Membership organisation services n.e.c. (91)</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -3707,7 +3707,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Manure (biogas treatment)</t>
+          <t>Motor Gasoline</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Manure (conventional treatment)</t>
+          <t>Motor vehicles, trailers and semi-trailers (34)</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -3731,7 +3731,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Meat animals nec</t>
+          <t>N-fertiliser</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -3743,7 +3743,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Meat products nec</t>
+          <t>Naphtha</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -3755,7 +3755,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Medical, precision and optical instruments, watches and clocks (33)</t>
+          <t>Natural Gas Liquids</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Membership organisation services n.e.c. (91)</t>
+          <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -3779,7 +3779,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Mono-Si and poli-Si cells</t>
+          <t>Nickel ores and concentrates</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -3791,7 +3791,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Motor Gasoline</t>
+          <t>Non-specified Petroleum Products</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -3803,7 +3803,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Motor vehicles, trailers and semi-trailers (34)</t>
+          <t>Nuclear fuel</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -3815,7 +3815,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>N-fertiliser</t>
+          <t>Office machinery and computers (30)</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -3827,7 +3827,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Naphtha</t>
+          <t>Offshore wind plants</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -3839,7 +3839,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Natural Gas Liquids</t>
+          <t>Oil seeds</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -3851,7 +3851,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
+          <t>Oil/hazardous waste for treatment: incineration</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -3863,7 +3863,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Neodymium</t>
+          <t>Onshore wind plants</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -3875,7 +3875,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Nickel ores and concentrates</t>
+          <t>Other Bituminous Coal</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -3887,7 +3887,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Non-specified Petroleum Products</t>
+          <t>Other Hydrocarbons</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -3899,7 +3899,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Nuclear fuel</t>
+          <t>Other Liquid Biofuels</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -3911,7 +3911,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Office machinery and computers (30)</t>
+          <t>Other business services (74)</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -3923,7 +3923,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Offshore wind plants</t>
+          <t>Other land transportation services</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -3935,7 +3935,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Oil seeds</t>
+          <t>Other non-ferrous metal ores and concentrates</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -3947,7 +3947,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Oil/hazardous waste for treatment: incineration</t>
+          <t>Other non-ferrous metal products</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -3959,7 +3959,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Onshore wind plants</t>
+          <t>Other non-metallic mineral products</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -3971,7 +3971,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Other Bituminous Coal</t>
+          <t>Other services (93)</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -3983,7 +3983,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Other Hydrocarbons</t>
+          <t>Other transport equipment (35)</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -3995,7 +3995,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Other Liquid Biofuels</t>
+          <t>Other waste for treatment: waste water treatment</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -4007,7 +4007,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Other business services (74)</t>
+          <t>Oxygen Steel Furnace Gas</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -4019,7 +4019,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Other land transportation services</t>
+          <t>P- and other fertiliser</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -4031,7 +4031,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Other non-ferrous metal ores and concentrates</t>
+          <t>Paddy rice</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -4043,7 +4043,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Other non-ferrous metal products</t>
+          <t>Paper and paper products</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -4055,7 +4055,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Other non-metallic mineral products</t>
+          <t>Paper and wood waste for treatment: composting and land application</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -4067,7 +4067,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Other services (93)</t>
+          <t>Paper for treatment: landfill</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -4079,7 +4079,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Other transport equipment (35)</t>
+          <t>Paper waste for treatment: biogasification and land application</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -4091,7 +4091,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Other waste for treatment: waste water treatment</t>
+          <t>Paper waste for treatment: incineration</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -4103,7 +4103,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Oxygen Steel Furnace Gas</t>
+          <t>Paraffin Waxes</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -4115,7 +4115,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>P- and other fertiliser</t>
+          <t>Patent Fuel</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -4127,7 +4127,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>PMG generators</t>
+          <t>Peat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -4139,7 +4139,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Paddy rice</t>
+          <t>Petroleum Coke</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -4151,7 +4151,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Paper and paper products</t>
+          <t>Photovoltaic plants</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -4163,7 +4163,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Paper and wood waste for treatment: composting and land application</t>
+          <t>Pigs</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -4175,7 +4175,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Paper for treatment: landfill</t>
+          <t>Plant-based fibers</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -4187,7 +4187,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Paper waste for treatment: biogasification and land application</t>
+          <t>Plastic waste for treatment: incineration</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -4199,7 +4199,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Paper waste for treatment: incineration</t>
+          <t>Plastic waste for treatment: landfill</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -4211,7 +4211,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Paraffin Waxes</t>
+          <t>Plastics, basic</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -4223,7 +4223,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Patent Fuel</t>
+          <t>Post and telecommunication services (64)</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -4235,7 +4235,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Peat</t>
+          <t>Poultry</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -4247,7 +4247,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Petroleum Coke</t>
+          <t>Precious metal ores and concentrates</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -4259,7 +4259,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Photovoltaic modules</t>
+          <t>Precious metals</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -4271,7 +4271,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Photovoltaic plants</t>
+          <t>Printed matter and recorded media (22)</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -4283,7 +4283,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Pigs</t>
+          <t>Private households with employed persons (95)</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -4295,7 +4295,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Plant-based fibers</t>
+          <t>Processed rice</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -4307,7 +4307,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Plastic waste for treatment: incineration</t>
+          <t>Products of forestry, logging and related services (02)</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -4319,7 +4319,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Plastic waste for treatment: landfill</t>
+          <t>Products of meat cattle</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -4331,7 +4331,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Plastics, basic</t>
+          <t>Products of meat pigs</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -4343,7 +4343,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Post and telecommunication services (64)</t>
+          <t>Products of meat poultry</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -4355,7 +4355,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Poultry</t>
+          <t>Public administration and defence services; compulsory social security services (75)</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -4367,7 +4367,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Precious metal ores and concentrates</t>
+          <t>Pulp</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -4379,7 +4379,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Precious metals</t>
+          <t>Radio, television and communication equipment and apparatus (32)</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -4391,7 +4391,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Printed matter and recorded media (22)</t>
+          <t>Railway transportation services</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -4403,7 +4403,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Private households with employed persons (95)</t>
+          <t>Raw milk</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -4415,7 +4415,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Processed rice</t>
+          <t>Real estate services (70)</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -4427,7 +4427,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Products of forestry, logging and related services (02)</t>
+          <t>Recreational, cultural and sporting services (92)</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -4439,7 +4439,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Products of meat cattle</t>
+          <t>Refinery Feedstocks</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -4451,7 +4451,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Products of meat pigs</t>
+          <t>Refinery Gas</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -4463,7 +4463,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Products of meat poultry</t>
+          <t>Renting services of machinery and equipment without operator and of personal and household goods (71)</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -4475,7 +4475,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Public administration and defence services; compulsory social security services (75)</t>
+          <t>Research and development services (73)</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -4487,7 +4487,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Pulp</t>
+          <t>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -4499,7 +4499,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Radio, television and communication equipment and apparatus (32)</t>
+          <t>Retail trade services of motor fuel</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -4511,7 +4511,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Railway transportation services</t>
+          <t>Rubber and plastic products (25)</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -4523,7 +4523,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Raw milk</t>
+          <t>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -4535,7 +4535,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Raw silicon</t>
+          <t>Sand and clay</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -4547,7 +4547,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Real estate services (70)</t>
+          <t>Sea and coastal water transportation services</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -4559,7 +4559,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Recreational, cultural and sporting services (92)</t>
+          <t>Secondary aluminium for treatment, Re-processing of secondary aluminium into new aluminium</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -4571,7 +4571,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Refinery Feedstocks</t>
+          <t>Secondary construction material for treatment, Re-processing of secondary construction material into aggregates</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -4583,7 +4583,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Refinery Gas</t>
+          <t>Secondary copper for treatment, Re-processing of secondary copper into new copper</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -4595,7 +4595,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Renting services of machinery and equipment without operator and of personal and household goods (71)</t>
+          <t>Secondary glass for treatment, Re-processing of secondary glass into new glass</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -4607,7 +4607,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Research and development services (73)</t>
+          <t>Secondary lead for treatment, Re-processing of secondary lead into new lead</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -4619,7 +4619,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
+          <t>Secondary other non-ferrous metals for treatment, Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -4631,7 +4631,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Retail trade services of motor fuel</t>
+          <t>Secondary paper for treatment, Re-processing of secondary paper into new pulp</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -4643,7 +4643,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Rubber and plastic products (25)</t>
+          <t>Secondary plastic for treatment, Re-processing of secondary plastic into new plastic</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -4655,7 +4655,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sale, maintenance, repair of motor vehicles, motor vehicles parts, motorcycles, motor cycles parts and accessoiries</t>
+          <t>Secondary preciuos metals for treatment, Re-processing of secondary preciuos metals into new preciuos metals</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -4667,7 +4667,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sand and clay</t>
+          <t>Secondary raw materials</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -4679,7 +4679,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Sea and coastal water transportation services</t>
+          <t>Secondary steel for treatment, Re-processing of secondary steel into new steel</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -4691,7 +4691,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Secondary aluminium for treatment, Re-processing of secondary aluminium into new aluminium</t>
+          <t>Services auxiliary to financial intermediation (67)</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -4703,7 +4703,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Secondary construction material for treatment, Re-processing of secondary construction material into aggregates</t>
+          <t>Sewage sludge for treatment: biogasification and land application</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -4715,7 +4715,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Secondary copper for treatment, Re-processing of secondary copper into new copper</t>
+          <t>Steam and hot water supply services</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -4727,7 +4727,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Secondary glass for treatment, Re-processing of secondary glass into new glass</t>
+          <t>Stone</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -4739,7 +4739,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Secondary lead for treatment, Re-processing of secondary lead into new lead</t>
+          <t>Sub-Bituminous Coal</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -4751,7 +4751,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Secondary other non-ferrous metals for treatment, Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
+          <t>Sugar</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -4763,7 +4763,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Secondary paper for treatment, Re-processing of secondary paper into new pulp</t>
+          <t>Sugar cane, sugar beet</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -4775,7 +4775,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Secondary plastic for treatment, Re-processing of secondary plastic into new plastic</t>
+          <t>Supporting and auxiliary transport services; travel agency services (63)</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -4787,7 +4787,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Secondary preciuos metals for treatment, Re-processing of secondary preciuos metals into new preciuos metals</t>
+          <t>Textiles (17)</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -4799,7 +4799,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Secondary raw materials</t>
+          <t>Textiles waste for treatment: incineration</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -4811,7 +4811,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Secondary steel for treatment, Re-processing of secondary steel into new steel</t>
+          <t>Textiles waste for treatment: landfill</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -4823,7 +4823,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Services auxiliary to financial intermediation (67)</t>
+          <t>Tobacco products (16)</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -4835,7 +4835,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Sewage sludge for treatment: biogasification and land application</t>
+          <t>Transmission services of electricity</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -4847,7 +4847,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Steam and hot water supply services</t>
+          <t>Transportation services via pipelines</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -4859,7 +4859,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Stone</t>
+          <t>Uranium and thorium ores (12)</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -4871,7 +4871,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Sub-Bituminous Coal</t>
+          <t>Vegetables, fruit, nuts</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -4883,7 +4883,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Sugar</t>
+          <t>Wearing apparel; furs (18)</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -4895,7 +4895,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Sugar cane, sugar beet</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -4907,7 +4907,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Supporting and auxiliary transport services; travel agency services (63)</t>
+          <t>White Spirit &amp; SBP</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -4919,7 +4919,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Textiles (17)</t>
+          <t>Wholesale trade and commission trade services, except of motor vehicles and motorcycles (51)</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -4931,7 +4931,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Textiles waste for treatment: incineration</t>
+          <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -4943,7 +4943,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Textiles waste for treatment: landfill</t>
+          <t>Wood material for treatment, Re-processing of secondary wood material into new wood material</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -4955,7 +4955,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tobacco products (16)</t>
+          <t>Wood waste for treatment: incineration</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -4967,7 +4967,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Transmission services of electricity</t>
+          <t>Wood waste for treatment: landfill</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -4979,7 +4979,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Transportation services via pipelines</t>
+          <t>Wool, silk-worm cocoons</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -4991,7 +4991,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Uranium and thorium ores (12)</t>
+          <t>products of Vegetable oils and fats</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -5001,11 +5001,6 @@
       </c>
     </row>
     <row r="370">
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Vegetables, fruit, nuts</t>
-        </is>
-      </c>
       <c r="D370" t="inlineStr">
         <is>
           <t>Indeno - non combustion - Production of gascoke - air</t>
@@ -5013,11 +5008,6 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Wearing apparel; furs (18)</t>
-        </is>
-      </c>
       <c r="D371" t="inlineStr">
         <is>
           <t>Indeno(1,2,3-cd)pyrene - combustion - air</t>
@@ -5025,11 +5015,6 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
       <c r="D372" t="inlineStr">
         <is>
           <t>Infrastructure land</t>
@@ -5037,11 +5022,6 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>White Spirit &amp; SBP</t>
-        </is>
-      </c>
       <c r="D373" t="inlineStr">
         <is>
           <t>N - agriculture - water</t>
@@ -5049,11 +5029,6 @@
       </c>
     </row>
     <row r="374">
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>Wholesale trade and commission trade services, except of motor vehicles and motorcycles (51)</t>
-        </is>
-      </c>
       <c r="D374" t="inlineStr">
         <is>
           <t>N - waste - water</t>
@@ -5061,11 +5036,6 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
-        </is>
-      </c>
       <c r="D375" t="inlineStr">
         <is>
           <t>N2O - agriculture - air</t>
@@ -5073,11 +5043,6 @@
       </c>
     </row>
     <row r="376">
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Wood material for treatment, Re-processing of secondary wood material into new wood material</t>
-        </is>
-      </c>
       <c r="D376" t="inlineStr">
         <is>
           <t>N2O - combustion - air</t>
@@ -5085,11 +5050,6 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>Wood waste for treatment: incineration</t>
-        </is>
-      </c>
       <c r="D377" t="inlineStr">
         <is>
           <t>NH3 - agriculture - air</t>
@@ -5097,11 +5057,6 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>Wood waste for treatment: landfill</t>
-        </is>
-      </c>
       <c r="D378" t="inlineStr">
         <is>
           <t>NH3 - combustion - air</t>
@@ -5109,11 +5064,6 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Wool, silk-worm cocoons</t>
-        </is>
-      </c>
       <c r="D379" t="inlineStr">
         <is>
           <t>NH3 - non combustion - N- fertilizer production - air</t>
@@ -5121,11 +5071,6 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>products of Vegetable oils and fats</t>
-        </is>
-      </c>
       <c r="D380" t="inlineStr">
         <is>
           <t>NH3 - waste - air</t>
@@ -10285,94 +10230,94 @@
     </row>
   </sheetData>
   <dataValidations count="30">
-    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E12" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E13" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E14" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E15" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E16" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E19" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E20" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E21" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E22" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E23" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E23" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E24" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E24" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E25" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E26" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E27" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E27" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E28" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E29" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E30" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E30" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E31" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E31" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10433,184 +10378,184 @@
     </row>
   </sheetData>
   <dataValidations count="60">
-    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10726,154 +10671,154 @@
     </row>
   </sheetData>
   <dataValidations count="50">
-    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10929,154 +10874,154 @@
     </row>
   </sheetData>
   <dataValidations count="50">
-    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11090,7 +11035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11148,27 +11093,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Photovoltaic plants</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mining of iron ores</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EU27+UK</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Neodymium</t>
+          <t>Production of electricity by solar photovoltaic</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -11177,7 +11122,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5943808354887546</v>
       </c>
     </row>
     <row r="3">
@@ -11193,7 +11138,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Photovoltaic plants</t>
+          <t>Onshore wind plants</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -11208,7 +11153,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Production of electricity by solar photovoltaic</t>
+          <t>Production of electricity by wind</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -11217,7 +11162,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5943808354887546</v>
+        <v>0.1346969728835914</v>
       </c>
     </row>
     <row r="4">
@@ -11233,7 +11178,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Onshore wind plants</t>
+          <t>Offshore wind plants</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -11257,579 +11202,219 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.1346969728835914</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EU27+UK</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Offshore wind plants</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EU27+UK</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Production of electricity by wind</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>0.2617013248366787</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mining of iron ores</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dysprosium</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Quarrying of sand and clay</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Raw silicon</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Mining of iron ores</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Neodymium</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Mining of iron ores</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Dysprosium</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Quarrying of sand and clay</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Raw silicon</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Mining of iron ores</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Neodymium</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Mining of iron ores</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Dysprosium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Quarrying of sand and clay</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>RoW</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Raw silicon</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="70">
-    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>indeces!$B$1:$B$380</formula1>
-    </dataValidation>
-    <dataValidation sqref="G11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>indeces!$B$1:$B$369</formula1>
+    </dataValidation>
+    <dataValidation sqref="G11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Shocks/Shock_files/EXIOHSUT_2013_Average.xlsx
+++ b/Shocks/Shock_files/EXIOHSUT_2013_Average.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="indeces" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="main" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Y" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="v" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="e" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="z" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indeces" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Y" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="v" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="e" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="z" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10230,94 +10230,94 @@
     </row>
   </sheetData>
   <dataValidations count="30">
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E12" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E12" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E13" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E14" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E15" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E16" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E17" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E19" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E20" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E21" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E22" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E23" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E23" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E24" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E24" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E25" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E26" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E26" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E27" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E27" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E28" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E29" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E29" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E30" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E30" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E31" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E31" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10378,184 +10378,184 @@
     </row>
   </sheetData>
   <dataValidations count="60">
-    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$E$1:$E$7</formula1>
     </dataValidation>
-    <dataValidation sqref="F11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10671,154 +10671,154 @@
     </row>
   </sheetData>
   <dataValidations count="50">
-    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$C$1:$C$12</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10874,154 +10874,154 @@
     </row>
   </sheetData>
   <dataValidations count="50">
-    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$D$1:$D$1105</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11207,214 +11207,214 @@
     </row>
   </sheetData>
   <dataValidations count="70">
-    <dataValidation sqref="A2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G2" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G3" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G6" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G7" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G8" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G9" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G10" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
-    <dataValidation sqref="A11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="A11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="B11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="B11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="C11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="D11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="D11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$A$1:$A$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Activity,Commodity"</formula1>
     </dataValidation>
-    <dataValidation sqref="F11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="F11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>indeces!$B$1:$B$369</formula1>
     </dataValidation>
-    <dataValidation sqref="G11" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="G11" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"Percentage,Absolute,Update"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Shocks/Shock_files/EXIOHSUT_2013_Average.xlsx
+++ b/Shocks/Shock_files/EXIOHSUT_2013_Average.xlsx
@@ -11035,7 +11035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11093,36 +11093,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Production of photovoltaic plants</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Photovoltaic plants</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EU27+UK</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Production of electricity by solar photovoltaic</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5943808354887546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -11133,36 +11133,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Production of onshore wind plants</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Onshore wind plants</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EU27+UK</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Production of electricity by wind</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1346969728835914</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -11173,35 +11173,155 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Production of offshore wind plants</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Offshore wind plants</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>EU27+UK</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Photovoltaic plants</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Production of electricity by solar photovoltaic</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5943808354887546</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Onshore wind plants</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Production of electricity by wind</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Update</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H6" t="n">
+        <v>0.1346969728835914</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Offshore wind plants</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EU27+UK</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Production of electricity by wind</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Update</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>0.2617013248366787</v>
       </c>
     </row>
